--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bjoern/Developer/sample-workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B4F816-96DD-EE44-8975-5410CBAF5852}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1004C6-0606-E243-9602-053EA5E8D745}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="5460" windowWidth="28040" windowHeight="17440" xr2:uid="{6BE5D64B-BA52-B44C-98A4-E7007128B6F3}"/>
   </bookViews>
@@ -377,55 +377,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A46EB24-878E-C447-8128-3FC13AEC457C}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="B1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1">
         <v>1</v>
       </c>
-      <c r="B1">
-        <f>A1+2</f>
+      <c r="C1">
+        <f>B1+2</f>
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2">
         <v>2</v>
       </c>
-      <c r="B2">
-        <f t="shared" ref="B2:B5" si="0">A2+2</f>
+      <c r="C2">
+        <f t="shared" ref="C2:C5" si="0">B2+2</f>
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
